--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-4/0_upgrade_char.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-4/0_upgrade_char.xlsx
@@ -72,7 +72,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Reunion is an organization solely made up of the Infected. As a matter of fact, we don’t know more about the Infected than they do.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Reunion is an organization solely made up of the Infected. As a matter of fact, we don't know more about the Infected than they do.
 </t>
   </si>
   <si>
@@ -84,7 +84,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] You don’t need to do this, because you’re better off letting others handle the weapons. However, as my job is to assist your commandership, I must inform you that it would be prudent to study all these records.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] You don't need to do this, because you're better off letting others handle the weapons. However, as my job is to assist your commandership, I must inform you that it would be prudent to study all these records.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-4/0_upgrade_char.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-4/0_upgrade_char.xlsx
@@ -100,11 +100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] 선택한 오퍼레이터에게 과거의 작전 기록을 보여주어, 그들에게 전장에서 쌓은 지식을 학습하도록 할 수 있습니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] 박사님께서는 특별한 무기를 다루는 분이 아니니 직접 학습하실 필요는 없겠지만, 지휘관으로서 오퍼레이터들과 함께 작전 기록을 봐두실 필요가 있습니다.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] 선택한 오퍼레이터에게 과거의 작전기록을 보여주어, 그들에게 전장에서 쌓은 지식을 학습하도록 할 수 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] 박사님께서는 특별한 무기를 다루는 분이 아니니 직접 학습하실 필요는 없겠지만, 지휘관으로서 오퍼레이터들과 함께 작전기록을 봐두실 필요가 있습니다.
 </t>
   </si>
 </sst>
